--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N2">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q2">
-        <v>0.01893886622933333</v>
+        <v>0.01155706711</v>
       </c>
       <c r="R2">
-        <v>0.170449796064</v>
+        <v>0.10401360399</v>
       </c>
       <c r="S2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="T2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q3">
         <v>0.02192062018866667</v>
@@ -632,10 +632,10 @@
         <v>0.197285581698</v>
       </c>
       <c r="S3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="T3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N4">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q4">
-        <v>0.1421487065451111</v>
+        <v>0.08137042806444446</v>
       </c>
       <c r="R4">
-        <v>1.279338358906</v>
+        <v>0.7323338525800001</v>
       </c>
       <c r="S4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="T4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
     </row>
   </sheetData>
